--- a/files/POS Sheet (Copy).xlsx
+++ b/files/POS Sheet (Copy).xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:S1008"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,8 +573,8 @@
       <c r="A3" s="1" t="n">
         <v>138588</v>
       </c>
-      <c r="B3" s="1" t="n">
-        <v>37000892229</v>
+      <c r="B3" s="6" t="n">
+        <v>49800155534</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>173997</v>
@@ -624,7 +624,7 @@
         <v>138589</v>
       </c>
       <c r="B4" s="6" t="n">
-        <v>73621520400</v>
+        <v>49800235168</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>633503</v>
